--- a/Baby_testes.xlsx
+++ b/Baby_testes.xlsx
@@ -407,7 +407,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Baby_testes.xlsx
+++ b/Baby_testes.xlsx
@@ -407,7 +407,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Baby_testes.xlsx
+++ b/Baby_testes.xlsx
@@ -407,7 +407,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Baby_testes.xlsx
+++ b/Baby_testes.xlsx
@@ -407,7 +407,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Baby_testes.xlsx
+++ b/Baby_testes.xlsx
@@ -407,7 +407,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Baby_testes.xlsx
+++ b/Baby_testes.xlsx
@@ -407,7 +407,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Baby_testes.xlsx
+++ b/Baby_testes.xlsx
@@ -407,7 +407,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Baby_testes.xlsx
+++ b/Baby_testes.xlsx
@@ -407,7 +407,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Baby_testes.xlsx
+++ b/Baby_testes.xlsx
@@ -407,7 +407,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
